--- a/docs/StructureDefinition-VAFinishedOutpatientMedicationDispense.xlsx
+++ b/docs/StructureDefinition-VAFinishedOutpatientMedicationDispense.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2550" uniqueCount="461">
   <si>
     <t>Path</t>
   </si>
@@ -339,6 +339,199 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>richAnnotation-comment-text</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
+</t>
+  </si>
+  <si>
+    <t>This field contains comments as deemed necessary by the pharmacy staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @REMARKS 52.1-3</t>
+  </si>
+  <si>
+    <t>medicationdispense-fillRequestDate</t>
+  </si>
+  <si>
+    <t>LOGIN DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-fillRequestDate}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This is the date the refill request was entered.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @LOGIN DATE 52.1-7</t>
+  </si>
+  <si>
+    <t>medicationdispense-dispensedAsWritten</t>
+  </si>
+  <si>
+    <t>DAW CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-dispensedAsWritten}
+</t>
+  </si>
+  <si>
+    <t>Dispensed As Written code. This information is used for electronic claim transmission to third party payers (insurance companies).</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @DAW CODE 52-81</t>
+  </si>
+  <si>
+    <t>medicationdispense-copayTransactionType</t>
+  </si>
+  <si>
+    <t>COPAY TRANSACTION TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-copayTransactionType}
+</t>
+  </si>
+  <si>
+    <t>This field contains the internal entry number of the pointer to the IB Action Type file (#350.1).</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @COPAY TRANSACTION TYPE 52-105</t>
+  </si>
+  <si>
+    <t>medicationdispense-pickupInstructions</t>
+  </si>
+  <si>
+    <t>METHOD OF PICKUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-pickupInstructions}
+</t>
+  </si>
+  <si>
+    <t>Enter any special instructions that should appear on mailing address portion of the label, specifing where, or when the RX(s) should be  picked up.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @METHOD OF PICKUP 52-35</t>
+  </si>
+  <si>
+    <t>medicationdispense-medicationReturnedToStock</t>
+  </si>
+  <si>
+    <t>RETURNED TO STOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-medicationReturnedToStock}
+</t>
+  </si>
+  <si>
+    <t>This field is used to indicate when and if the medication was returned to inventory due to the prescription not being picked up or mailed to the patient.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @RETURNED TO STOCK 52.1-14</t>
+  </si>
+  <si>
+    <t>medicationdispense-patientCounselingUnderstood</t>
+  </si>
+  <si>
+    <t>WAS COUNSELING UNDERSTOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-patientCounselingUnderstood}
+</t>
+  </si>
+  <si>
+    <t>This field indicates whether or not the patient understood the counseling on the prescription, if the patient was counseled.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @WAS COUNSELING UNDERSTOOD 52-42</t>
+  </si>
+  <si>
+    <t>medicationdispense-patientCounseled</t>
+  </si>
+  <si>
+    <t>WAS THE PATIENT COUNSELED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-patientCounseled}
+</t>
+  </si>
+  <si>
+    <t>This field indicates whether or not the patient received counseling about the prescription.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @WAS THE PATIENT COUNSELED 52-41</t>
+  </si>
+  <si>
+    <t>medicationdispense-fillDate</t>
+  </si>
+  <si>
+    <t>FILL DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-fillDate}
+</t>
+  </si>
+  <si>
+    <t>Original Fill Date</t>
+  </si>
+  <si>
+    <t>The date the prescription was filled.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @FILL DATE 52-22</t>
+  </si>
+  <si>
+    <t>medicationdispense-dispenseChannel</t>
+  </si>
+  <si>
+    <t>MAIL/WINDOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-dispenseChannel}
+</t>
+  </si>
+  <si>
+    <t>Refill mail/Window</t>
+  </si>
+  <si>
+    <t>This field contains 'M' if the refill is to be mailed to the patient and 'W' if the refill is to be picked up at the pharmacy window.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @MAIL/WINDOW 52.1-2</t>
+  </si>
+  <si>
+    <t>medicationdispense-labelCopies</t>
+  </si>
+  <si>
+    <t>COPIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-labelCopies}
+</t>
+  </si>
+  <si>
+    <t>The number of copies made of the label for the prescription.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @COPIES 52-10.6</t>
+  </si>
+  <si>
     <t>medicationdispense-authorization</t>
   </si>
   <si>
@@ -355,200 +548,7 @@
     <t>This field is used to show the status of the patient at the time the  medication was filled.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PRESCRIPTION @PATIENT STATUS 52-3</t>
-  </si>
-  <si>
-    <t>medicationdispense-labelCopies</t>
-  </si>
-  <si>
-    <t>COPIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-labelCopies}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>The number of copies made of the label for the prescription.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @COPIES 52-10.6</t>
-  </si>
-  <si>
-    <t>medicationdispense-dispenseChannel</t>
-  </si>
-  <si>
-    <t>MAIL/WINDOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-dispenseChannel}
-</t>
-  </si>
-  <si>
-    <t>Refill mail/Window</t>
-  </si>
-  <si>
-    <t>This field contains 'M' if the refill is to be mailed to the patient and 'W' if the refill is to be picked up at the pharmacy window.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @MAIL/WINDOW 52.1-2</t>
-  </si>
-  <si>
-    <t>medicationdispense-fillDate</t>
-  </si>
-  <si>
-    <t>FILL DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-fillDate}
-</t>
-  </si>
-  <si>
-    <t>Original Fill Date</t>
-  </si>
-  <si>
-    <t>The date the prescription was filled.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @FILL DATE 52-22</t>
-  </si>
-  <si>
-    <t>medicationdispense-patientCounseled</t>
-  </si>
-  <si>
-    <t>WAS THE PATIENT COUNSELED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-patientCounseled}
-</t>
-  </si>
-  <si>
-    <t>This field indicates whether or not the patient received counseling about the prescription.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @WAS THE PATIENT COUNSELED 52-41</t>
-  </si>
-  <si>
-    <t>medicationdispense-patientCounselingUnderstood</t>
-  </si>
-  <si>
-    <t>WAS COUNSELING UNDERSTOOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-patientCounselingUnderstood}
-</t>
-  </si>
-  <si>
-    <t>This field indicates whether or not the patient understood the counseling on the prescription, if the patient was counseled.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @WAS COUNSELING UNDERSTOOD 52-42</t>
-  </si>
-  <si>
-    <t>medicationdispense-medicationReturnedToStock</t>
-  </si>
-  <si>
-    <t>RETURNED TO STOCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-medicationReturnedToStock}
-</t>
-  </si>
-  <si>
-    <t>This field is used to indicate when and if the medication was returned to inventory due to the prescription not being picked up or mailed to the patient.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @RETURNED TO STOCK 52.1-14</t>
-  </si>
-  <si>
-    <t>medicationdispense-pickupInstructions</t>
-  </si>
-  <si>
-    <t>METHOD OF PICKUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-pickupInstructions}
-</t>
-  </si>
-  <si>
-    <t>Enter any special instructions that should appear on mailing address portion of the label, specifing where, or when the RX(s) should be  picked up.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @METHOD OF PICKUP 52-35</t>
-  </si>
-  <si>
-    <t>medicationdispense-copayTransactionType</t>
-  </si>
-  <si>
-    <t>COPAY TRANSACTION TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-copayTransactionType}
-</t>
-  </si>
-  <si>
-    <t>This field contains the internal entry number of the pointer to the IB Action Type file (#350.1).</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @COPAY TRANSACTION TYPE 52-105</t>
-  </si>
-  <si>
-    <t>medicationdispense-dispensedAsWritten</t>
-  </si>
-  <si>
-    <t>DAW CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-dispensedAsWritten}
-</t>
-  </si>
-  <si>
-    <t>Dispensed As Written code. This information is used for electronic claim transmission to third party payers (insurance companies).</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @DAW CODE 52-81</t>
-  </si>
-  <si>
-    <t>medicationdispense-fillRequestDate</t>
-  </si>
-  <si>
-    <t>LOGIN DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-fillRequestDate}
-</t>
-  </si>
-  <si>
-    <t>This is the date the refill request was entered.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @LOGIN DATE 52.1-7</t>
-  </si>
-  <si>
-    <t>richAnnotation/comment/text</t>
-  </si>
-  <si>
-    <t>REMARKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
-</t>
-  </si>
-  <si>
-    <t>This field contains comments as deemed necessary by the pharmacy staff.</t>
-  </si>
-  <si>
-    <t>PRESCRIPTION @REMARKS 52.1-3</t>
   </si>
   <si>
     <t>MedicationDispense.modifierExtension</t>
@@ -1061,14 +1061,20 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
+    <t>REMOTE PHARMACIST</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference(Practitioner|Organization|Patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Individual who was performing</t>
-  </si>
-  <si>
-    <t>The device, practitioner, etc. who performed the action.  It should be assumed that the actor is the dispenser of the medication.</t>
+    <t>finishing person</t>
+  </si>
+  <si>
+    <t>This is the name of the Pharmacist that remotely completed a refill for a prescription.</t>
+  </si>
+  <si>
+    <t>PRESCRIPTION @REMOTE PHARMACIST 52.1-92</t>
   </si>
   <si>
     <t>….actor</t>
@@ -2712,10 +2718,10 @@
         <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2775,19 +2781,19 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI10" t="s" s="2">
+      <c r="AJ10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>41</v>
@@ -2801,13 +2807,13 @@
         <v>96</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>42</v>
@@ -2825,13 +2831,13 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2891,13 +2897,13 @@
         <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI11" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AJ11" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>41</v>
@@ -2917,13 +2923,13 @@
         <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>42</v>
@@ -2941,13 +2947,13 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3007,13 +3013,13 @@
         <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI12" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>41</v>
@@ -3033,13 +3039,13 @@
         <v>96</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>42</v>
@@ -3057,13 +3063,13 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3123,13 +3129,13 @@
         <v>43</v>
       </c>
       <c r="AH13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI13" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI13" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AJ13" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
@@ -3149,13 +3155,13 @@
         <v>96</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>42</v>
@@ -3173,13 +3179,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3239,13 +3245,13 @@
         <v>43</v>
       </c>
       <c r="AH14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI14" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI14" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -3265,13 +3271,13 @@
         <v>96</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>42</v>
@@ -3289,13 +3295,13 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3355,13 +3361,13 @@
         <v>43</v>
       </c>
       <c r="AH15" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI15" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -3381,13 +3387,13 @@
         <v>96</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>42</v>
@@ -3405,13 +3411,13 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3471,13 +3477,13 @@
         <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI16" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI16" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AJ16" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
@@ -3497,13 +3503,13 @@
         <v>96</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s" s="2">
         <v>42</v>
@@ -3521,13 +3527,13 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3587,13 +3593,13 @@
         <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI17" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI17" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AJ17" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -3613,13 +3619,13 @@
         <v>96</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>42</v>
@@ -3637,13 +3643,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3703,13 +3709,13 @@
         <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI18" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AJ18" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -3729,13 +3735,13 @@
         <v>96</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>42</v>
@@ -3753,13 +3759,13 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3819,13 +3825,13 @@
         <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI19" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI19" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AJ19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -3845,13 +3851,13 @@
         <v>96</v>
       </c>
       <c r="B20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>42</v>
@@ -3869,13 +3875,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3935,13 +3941,13 @@
         <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AI20" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AJ20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -3961,13 +3967,13 @@
         <v>96</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>42</v>
@@ -3985,10 +3991,10 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>167</v>
@@ -4051,10 +4057,10 @@
         <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>168</v>
@@ -4063,7 +4069,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -6895,10 +6901,10 @@
         <v>43</v>
       </c>
       <c r="AH46" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AI46" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>328</v>
@@ -7030,7 +7036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>333</v>
       </c>
@@ -7038,7 +7044,9 @@
       <c r="C48" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="E48" t="s" s="2">
         <v>52</v>
       </c>
@@ -7046,7 +7054,7 @@
         <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>41</v>
@@ -7055,13 +7063,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7127,13 +7135,13 @@
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>41</v>
+        <v>338</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7144,7 +7152,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7167,13 +7175,13 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7224,7 +7232,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7242,10 +7250,10 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7256,7 +7264,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7279,16 +7287,16 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7338,7 +7346,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7356,21 +7364,21 @@
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7396,10 +7404,10 @@
         <v>199</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7429,28 +7437,28 @@
         <v>210</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7471,25 +7479,25 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E52" t="s" s="2">
         <v>42</v>
@@ -7507,13 +7515,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7564,7 +7572,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7579,24 +7587,24 @@
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7619,13 +7627,13 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7676,7 +7684,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7697,25 +7705,25 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E54" t="s" s="2">
         <v>42</v>
@@ -7733,13 +7741,13 @@
         <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7790,7 +7798,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7805,24 +7813,24 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7845,13 +7853,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7902,7 +7910,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7920,21 +7928,21 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7957,13 +7965,13 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8014,7 +8022,7 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8035,18 +8043,18 @@
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8069,13 +8077,13 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8126,7 +8134,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8147,7 +8155,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8158,7 +8166,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8181,13 +8189,13 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8238,7 +8246,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8256,21 +8264,21 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8293,16 +8301,16 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8352,7 +8360,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8373,7 +8381,7 @@
         <v>41</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
@@ -8384,7 +8392,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8410,10 +8418,10 @@
         <v>314</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8464,7 +8472,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8485,7 +8493,7 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>41</v>
@@ -8496,7 +8504,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8608,7 +8616,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8722,7 +8730,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8836,7 +8844,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8862,10 +8870,10 @@
         <v>274</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8916,7 +8924,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>52</v>
@@ -8937,7 +8945,7 @@
         <v>41</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>41</v>
@@ -8948,7 +8956,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8974,10 +8982,10 @@
         <v>199</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9007,10 +9015,10 @@
         <v>210</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>41</v>
@@ -9028,7 +9036,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9049,18 +9057,18 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9086,10 +9094,10 @@
         <v>199</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9119,10 +9127,10 @@
         <v>210</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>41</v>
@@ -9140,7 +9148,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9161,7 +9169,7 @@
         <v>41</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>41</v>
@@ -9172,7 +9180,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9195,13 +9203,13 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9252,7 +9260,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9273,7 +9281,7 @@
         <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>41</v>
@@ -9284,11 +9292,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9307,13 +9315,13 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9364,7 +9372,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9385,7 +9393,7 @@
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>41</v>
@@ -9396,7 +9404,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9422,10 +9430,10 @@
         <v>274</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9476,7 +9484,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9494,10 +9502,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>41</v>
@@ -9508,7 +9516,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9531,13 +9539,13 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9588,7 +9596,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9606,10 +9614,10 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9620,7 +9628,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9643,16 +9651,16 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9702,7 +9710,7 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
@@ -9723,7 +9731,7 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-VAFinishedOutpatientMedicationDispense.xlsx
+++ b/docs/StructureDefinition-VAFinishedOutpatientMedicationDispense.xlsx
@@ -373,9 +373,6 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
     <t>This is the date the refill request was entered.</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   <si>
     <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-dispensedAsWritten}
 </t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
   </si>
   <si>
     <t>Dispensed As Written code. This information is used for electronic claim transmission to third party payers (insurance companies).</t>
@@ -2834,10 +2834,10 @@
         <v>112</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2903,13 +2903,13 @@
         <v>108</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>41</v>
@@ -2923,13 +2923,13 @@
         <v>96</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="E12" t="s" s="2">
         <v>42</v>
@@ -2947,10 +2947,10 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>119</v>
@@ -3066,7 +3066,7 @@
         <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>124</v>
@@ -3182,7 +3182,7 @@
         <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>129</v>
@@ -3298,7 +3298,7 @@
         <v>133</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>134</v>
@@ -3414,7 +3414,7 @@
         <v>138</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>139</v>
@@ -3530,7 +3530,7 @@
         <v>143</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>144</v>
@@ -3837,7 +3837,7 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3878,7 +3878,7 @@
         <v>160</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>161</v>

--- a/docs/StructureDefinition-VAFinishedOutpatientMedicationDispense.xlsx
+++ b/docs/StructureDefinition-VAFinishedOutpatientMedicationDispense.xlsx
@@ -3721,7 +3721,7 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
